--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -234,7 +233,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -242,6 +241,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,49 +670,51 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="2">
         <v>7</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -720,19 +722,19 @@
       <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -740,19 +742,17 @@
       <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
@@ -764,13 +764,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -814,7 +814,7 @@
       <c r="E15" s="5">
         <v>14</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
